--- a/data/compatibility/openEuler22.03-LTS-SP1上两类平台板卡兼容清单.xlsx
+++ b/data/compatibility/openEuler22.03-LTS-SP1上两类平台板卡兼容清单.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoperun\Desktop\9.14\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoperun\Desktop\9.22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0315DA-58FD-43F7-83AD-697A19946BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8AAB320-DAF8-4DC0-839A-B193E013652A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1599" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="387">
   <si>
     <t>vendorID</t>
   </si>
@@ -1831,9 +1831,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q101" sqref="Q101"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q103" sqref="Q103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15069,23 +15069,57 @@
       </c>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A98" s="9"/>
-      <c r="B98" s="22"/>
-      <c r="C98" s="9"/>
-      <c r="D98" s="9"/>
-      <c r="E98" s="9"/>
-      <c r="F98" s="9"/>
-      <c r="G98" s="9"/>
-      <c r="H98" s="9"/>
-      <c r="I98" s="9"/>
-      <c r="J98" s="9"/>
-      <c r="K98" s="12"/>
-      <c r="L98" s="9"/>
-      <c r="M98" s="9"/>
-      <c r="N98" s="26"/>
-      <c r="O98" s="26"/>
-      <c r="P98" s="26"/>
-      <c r="Q98" s="26"/>
+      <c r="A98" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B98" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F98" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G98" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="H98" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="I98" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="J98" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K98" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="L98" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="M98" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="N98" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="O98" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="P98" s="74" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q98" s="37" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A99" s="9"/>
@@ -33169,9 +33203,10 @@
     <hyperlink ref="Q95" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
     <hyperlink ref="Q96" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
     <hyperlink ref="Q97" r:id="rId19" xr:uid="{1B685D87-C6D0-4AED-B372-B9CAC62B5692}"/>
+    <hyperlink ref="Q98" r:id="rId20" xr:uid="{8E60469E-9FE4-471D-BE17-A0A2030360C5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId20"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId21"/>
 </worksheet>
 </file>
 

--- a/data/compatibility/openEuler22.03-LTS-SP1上两类平台板卡兼容清单.xlsx
+++ b/data/compatibility/openEuler22.03-LTS-SP1上两类平台板卡兼容清单.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoperun\Desktop\129\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B5A724-1488-49FB-8786-EAADE87D2074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="openEuler22.03-LTS-SP1两类平台板卡兼容性" sheetId="1" r:id="rId1"/>
@@ -31,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="404">
   <si>
     <t>vendorID</t>
   </si>
@@ -1219,19 +1225,45 @@
   </si>
   <si>
     <t>Radeon Pro W6800</t>
+  </si>
+  <si>
+    <t>23.10-0.5.5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.12.15</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3296d3b9264f3028566306b1f75985bca243b4be0868a4679bf61c588a511817</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>189M</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS-SP1/contrib/drivers/source/Packages/MLNX_OFED_LINUX-23.10-0.5.5.0-openeuler22.03sp1-x86_64.tgz</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>a3b4f2c9d42452eece7606308ae8947bb20439068703e3668e8f472cc7f4e48e</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>173M</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS-SP1/contrib/drivers/source/Packages/MLNX_OFED_LINUX-23.10-0.5.5.0-openeuler22.03sp1-aarch64.tgz</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1282,143 +1314,19 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1449,194 +1357,8 @@
         <bgColor rgb="FF339966"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1672,249 +1394,10 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1922,12 +1405,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1995,8 +1478,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="6" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2038,19 +1521,19 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="6" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2065,70 +1548,28 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="6" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 3" xfId="50"/>
+    <cellStyle name="常规 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="常规 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -2201,6 +1642,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2458,21 +1902,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ272"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="I102" sqref="I102"/>
+      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H104" sqref="H104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" style="4" customWidth="1"/>
     <col min="2" max="2" width="5.875" style="4" customWidth="1"/>
@@ -2496,7 +1939,7 @@
     <col min="1025" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="27" spans="1:1024">
+    <row r="1" spans="1:1024" s="3" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -3558,7 +3001,7 @@
       <c r="AMI1" s="32"/>
       <c r="AMJ1" s="32"/>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>18</v>
       </c>
@@ -3613,7 +3056,7 @@
       <c r="T2" s="33"/>
       <c r="U2" s="33"/>
     </row>
-    <row r="3" spans="1:1024">
+    <row r="3" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A3" s="21" t="s">
         <v>34</v>
       </c>
@@ -4673,7 +4116,7 @@
       <c r="AMI3" s="35"/>
       <c r="AMJ3" s="35"/>
     </row>
-    <row r="4" s="4" customFormat="1" spans="1:21">
+    <row r="4" spans="1:1024" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>34</v>
       </c>
@@ -4730,7 +4173,7 @@
       <c r="T4" s="33"/>
       <c r="U4" s="33"/>
     </row>
-    <row r="5" s="4" customFormat="1" spans="1:21">
+    <row r="5" spans="1:1024" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
         <v>49</v>
       </c>
@@ -4787,7 +4230,7 @@
       <c r="T5" s="33"/>
       <c r="U5" s="33"/>
     </row>
-    <row r="6" s="4" customFormat="1" spans="1:21">
+    <row r="6" spans="1:1024" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
         <v>18</v>
       </c>
@@ -4842,7 +4285,7 @@
       <c r="T6" s="33"/>
       <c r="U6" s="33"/>
     </row>
-    <row r="7" s="4" customFormat="1" spans="1:21">
+    <row r="7" spans="1:1024" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
         <v>71</v>
       </c>
@@ -4899,7 +4342,7 @@
       <c r="T7" s="33"/>
       <c r="U7" s="33"/>
     </row>
-    <row r="8" s="4" customFormat="1" spans="1:21">
+    <row r="8" spans="1:1024" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
         <v>34</v>
       </c>
@@ -4954,7 +4397,7 @@
       <c r="T8" s="33"/>
       <c r="U8" s="33"/>
     </row>
-    <row r="9" s="5" customFormat="1" spans="1:17">
+    <row r="9" spans="1:1024" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>34</v>
       </c>
@@ -5007,7 +4450,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" s="5" customFormat="1" spans="1:17">
+    <row r="10" spans="1:1024" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>34</v>
       </c>
@@ -5060,7 +4503,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" s="5" customFormat="1" spans="1:17">
+    <row r="11" spans="1:1024" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>34</v>
       </c>
@@ -5113,7 +4556,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" s="5" customFormat="1" spans="1:17">
+    <row r="12" spans="1:1024" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>49</v>
       </c>
@@ -5166,7 +4609,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" s="5" customFormat="1" spans="1:17">
+    <row r="13" spans="1:1024" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>18</v>
       </c>
@@ -5216,7 +4659,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" s="5" customFormat="1" spans="1:17">
+    <row r="14" spans="1:1024" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>20</v>
       </c>
@@ -5269,7 +4712,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" s="5" customFormat="1" spans="1:17">
+    <row r="15" spans="1:1024" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
         <v>71</v>
       </c>
@@ -5322,7 +4765,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" s="5" customFormat="1" spans="1:17">
+    <row r="16" spans="1:1024" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
         <v>71</v>
       </c>
@@ -5375,7 +4818,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" s="5" customFormat="1" spans="1:17">
+    <row r="17" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>34</v>
       </c>
@@ -5428,7 +4871,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" s="5" customFormat="1" spans="1:17">
+    <row r="18" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
         <v>71</v>
       </c>
@@ -5481,7 +4924,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" s="5" customFormat="1" spans="1:17">
+    <row r="19" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
         <v>71</v>
       </c>
@@ -5534,7 +4977,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" s="5" customFormat="1" spans="1:17">
+    <row r="20" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
         <v>20</v>
       </c>
@@ -5587,7 +5030,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" s="5" customFormat="1" spans="1:17">
+    <row r="21" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
         <v>49</v>
       </c>
@@ -5640,7 +5083,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="22" s="5" customFormat="1" spans="1:17">
+    <row r="22" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
         <v>49</v>
       </c>
@@ -5693,7 +5136,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="23" s="5" customFormat="1" spans="1:17">
+    <row r="23" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
         <v>71</v>
       </c>
@@ -5746,7 +5189,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" s="5" customFormat="1" spans="1:17">
+    <row r="24" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
         <v>160</v>
       </c>
@@ -5799,7 +5242,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" s="5" customFormat="1" spans="1:17">
+    <row r="25" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
         <v>20</v>
       </c>
@@ -5852,7 +5295,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" s="5" customFormat="1" spans="1:17">
+    <row r="26" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -5905,7 +5348,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="s">
         <v>71</v>
       </c>
@@ -5958,7 +5401,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A28" s="8" t="s">
         <v>34</v>
       </c>
@@ -6011,7 +5454,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
         <v>198</v>
       </c>
@@ -6066,7 +5509,7 @@
       <c r="T29" s="33"/>
       <c r="U29" s="33"/>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A30" s="8" t="s">
         <v>198</v>
       </c>
@@ -6121,7 +5564,7 @@
       <c r="T30" s="33"/>
       <c r="U30" s="33"/>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A31" s="8" t="s">
         <v>160</v>
       </c>
@@ -6174,7 +5617,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A32" s="8" t="s">
         <v>160</v>
       </c>
@@ -6227,7 +5670,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A33" s="8" t="s">
         <v>160</v>
       </c>
@@ -6280,7 +5723,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" s="6" customFormat="1" spans="1:17">
+    <row r="34" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="6">
         <v>1000</v>
       </c>
@@ -6333,7 +5776,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A35" s="8" t="s">
         <v>34</v>
       </c>
@@ -6386,7 +5829,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A36" s="8" t="s">
         <v>34</v>
       </c>
@@ -6439,7 +5882,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" s="7" customFormat="1" spans="1:17">
+    <row r="37" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="23">
         <v>1000</v>
       </c>
@@ -6492,7 +5935,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="38" s="4" customFormat="1" ht="27" spans="1:21">
+    <row r="38" spans="1:21" s="4" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A38" s="8" t="s">
         <v>49</v>
       </c>
@@ -6549,7 +5992,7 @@
       <c r="T38" s="33"/>
       <c r="U38" s="33"/>
     </row>
-    <row r="39" ht="27" spans="1:17">
+    <row r="39" spans="1:21" ht="27" x14ac:dyDescent="0.15">
       <c r="A39" s="8" t="s">
         <v>49</v>
       </c>
@@ -6602,7 +6045,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="40" ht="27" spans="1:17">
+    <row r="40" spans="1:21" ht="27" x14ac:dyDescent="0.15">
       <c r="A40" s="8" t="s">
         <v>49</v>
       </c>
@@ -6655,7 +6098,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" ht="14.1" customHeight="1" spans="1:21">
+    <row r="41" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="8" t="s">
         <v>18</v>
       </c>
@@ -6710,7 +6153,7 @@
       <c r="T41" s="33"/>
       <c r="U41" s="33"/>
     </row>
-    <row r="42" spans="1:21">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A42" s="8" t="s">
         <v>18</v>
       </c>
@@ -6765,7 +6208,7 @@
       <c r="T42" s="33"/>
       <c r="U42" s="33"/>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A43" s="8" t="s">
         <v>71</v>
       </c>
@@ -6818,7 +6261,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A44" s="8" t="s">
         <v>71</v>
       </c>
@@ -6871,7 +6314,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A45" s="27" t="s">
         <v>71</v>
       </c>
@@ -6924,7 +6367,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A46" s="26" t="s">
         <v>71</v>
       </c>
@@ -6977,7 +6420,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A47" s="8" t="s">
         <v>18</v>
       </c>
@@ -7027,7 +6470,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A48" s="8" t="s">
         <v>18</v>
       </c>
@@ -7077,7 +6520,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
         <v>71</v>
       </c>
@@ -7130,7 +6573,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
         <v>71</v>
       </c>
@@ -7183,7 +6626,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="51" s="8" customFormat="1" ht="12.95" customHeight="1" spans="1:17">
+    <row r="51" spans="1:17" s="8" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="8" t="s">
         <v>20</v>
       </c>
@@ -7236,7 +6679,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="52" s="8" customFormat="1" spans="1:17">
+    <row r="52" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A52" s="8" t="s">
         <v>20</v>
       </c>
@@ -7289,7 +6732,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A53" s="27" t="s">
         <v>71</v>
       </c>
@@ -7342,7 +6785,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A54" s="26" t="s">
         <v>71</v>
       </c>
@@ -7395,7 +6838,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A55" s="8" t="s">
         <v>71</v>
       </c>
@@ -7448,7 +6891,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A56" s="8" t="s">
         <v>71</v>
       </c>
@@ -7501,7 +6944,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
         <v>71</v>
       </c>
@@ -7554,7 +6997,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A58" s="4" t="s">
         <v>71</v>
       </c>
@@ -7607,7 +7050,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A59" s="8" t="s">
         <v>160</v>
       </c>
@@ -7660,7 +7103,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A60" s="8" t="s">
         <v>160</v>
       </c>
@@ -7713,7 +7156,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="61" s="6" customFormat="1" spans="1:17">
+    <row r="61" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A61" s="6">
         <v>1000</v>
       </c>
@@ -7763,7 +7206,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A62" s="8" t="s">
         <v>34</v>
       </c>
@@ -7814,7 +7257,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A63" s="8" t="s">
         <v>34</v>
       </c>
@@ -7865,7 +7308,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A64" s="8" t="s">
         <v>34</v>
       </c>
@@ -7916,7 +7359,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A65" s="8" t="s">
         <v>34</v>
       </c>
@@ -7967,7 +7410,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A66" s="8" t="s">
         <v>34</v>
       </c>
@@ -8018,7 +7461,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="67" s="7" customFormat="1" spans="1:17">
+    <row r="67" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A67" s="23">
         <v>1000</v>
       </c>
@@ -8069,7 +7512,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="68" s="7" customFormat="1" spans="1:17">
+    <row r="68" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A68" s="23">
         <v>1000</v>
       </c>
@@ -8120,7 +7563,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="69" s="7" customFormat="1" spans="1:17">
+    <row r="69" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A69" s="23">
         <v>1000</v>
       </c>
@@ -8171,7 +7614,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="70" spans="1:21">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A70" s="38" t="s">
         <v>284</v>
       </c>
@@ -8226,7 +7669,7 @@
       <c r="T70" s="52"/>
       <c r="U70" s="52"/>
     </row>
-    <row r="71" spans="1:21">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A71" s="38" t="s">
         <v>34</v>
       </c>
@@ -8281,7 +7724,7 @@
       <c r="T71" s="52"/>
       <c r="U71" s="52"/>
     </row>
-    <row r="72" spans="1:21">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A72" s="38" t="s">
         <v>49</v>
       </c>
@@ -8338,7 +7781,7 @@
       <c r="T72" s="8"/>
       <c r="U72" s="8"/>
     </row>
-    <row r="73" spans="1:21">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A73" s="38" t="s">
         <v>34</v>
       </c>
@@ -8395,7 +7838,7 @@
       <c r="T73" s="8"/>
       <c r="U73" s="8"/>
     </row>
-    <row r="74" s="5" customFormat="1" spans="1:17">
+    <row r="74" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A74" s="5" t="s">
         <v>34</v>
       </c>
@@ -8448,7 +7891,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="75" ht="14.1" customHeight="1" spans="1:21">
+    <row r="75" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="8" t="s">
         <v>18</v>
       </c>
@@ -8505,7 +7948,7 @@
       <c r="T75" s="33"/>
       <c r="U75" s="33"/>
     </row>
-    <row r="76" spans="1:21">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A76" s="8" t="s">
         <v>18</v>
       </c>
@@ -8562,7 +8005,7 @@
       <c r="T76" s="33"/>
       <c r="U76" s="33"/>
     </row>
-    <row r="77" ht="14.1" customHeight="1" spans="1:21">
+    <row r="77" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="8" t="s">
         <v>18</v>
       </c>
@@ -8619,7 +8062,7 @@
       <c r="T77" s="33"/>
       <c r="U77" s="33"/>
     </row>
-    <row r="78" spans="1:21">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A78" s="8" t="s">
         <v>18</v>
       </c>
@@ -8676,7 +8119,7 @@
       <c r="T78" s="33"/>
       <c r="U78" s="33"/>
     </row>
-    <row r="79" spans="1:17">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A79" s="8" t="s">
         <v>18</v>
       </c>
@@ -8729,7 +8172,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="80" spans="1:17">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A80" s="8" t="s">
         <v>18</v>
       </c>
@@ -8782,7 +8225,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="81" s="8" customFormat="1" spans="1:1024">
+    <row r="81" spans="1:1024" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A81" s="8" t="s">
         <v>18</v>
       </c>
@@ -9842,7 +9285,7 @@
       <c r="AMI81" s="4"/>
       <c r="AMJ81" s="4"/>
     </row>
-    <row r="82" s="8" customFormat="1" spans="1:1024">
+    <row r="82" spans="1:1024" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A82" s="8" t="s">
         <v>18</v>
       </c>
@@ -10902,7 +10345,7 @@
       <c r="AMI82" s="4"/>
       <c r="AMJ82" s="4"/>
     </row>
-    <row r="83" s="9" customFormat="1" spans="1:1024">
+    <row r="83" spans="1:1024" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A83" s="41">
         <v>8086</v>
       </c>
@@ -11962,7 +11405,7 @@
       <c r="AMI83" s="56"/>
       <c r="AMJ83" s="56"/>
     </row>
-    <row r="84" s="9" customFormat="1" spans="1:1024">
+    <row r="84" spans="1:1024" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A84" s="41">
         <v>8086</v>
       </c>
@@ -13020,7 +12463,7 @@
       <c r="AMI84" s="56"/>
       <c r="AMJ84" s="56"/>
     </row>
-    <row r="85" s="10" customFormat="1" spans="1:17">
+    <row r="85" spans="1:1024" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A85" s="10" t="s">
         <v>34</v>
       </c>
@@ -13071,7 +12514,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="86" s="8" customFormat="1" spans="1:17">
+    <row r="86" spans="1:1024" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A86" s="8" t="s">
         <v>335</v>
       </c>
@@ -13119,7 +12562,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="87" s="8" customFormat="1" spans="1:17">
+    <row r="87" spans="1:1024" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A87" s="8" t="s">
         <v>71</v>
       </c>
@@ -13170,7 +12613,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="88" spans="1:17">
+    <row r="88" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A88" s="8" t="s">
         <v>71</v>
       </c>
@@ -13221,7 +12664,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="89" s="8" customFormat="1" spans="1:17">
+    <row r="89" spans="1:1024" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A89" s="8" t="s">
         <v>284</v>
       </c>
@@ -13274,7 +12717,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="90" spans="1:17">
+    <row r="90" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A90" s="8" t="s">
         <v>284</v>
       </c>
@@ -13327,7 +12770,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="91" spans="1:17">
+    <row r="91" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A91" s="8" t="s">
         <v>160</v>
       </c>
@@ -13378,7 +12821,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="92" spans="1:17">
+    <row r="92" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A92" s="8" t="s">
         <v>160</v>
       </c>
@@ -13429,7 +12872,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="93" customFormat="1" spans="1:1024">
+    <row r="93" spans="1:1024" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A93" s="10" t="s">
         <v>49</v>
       </c>
@@ -14487,7 +13930,7 @@
       <c r="AMI93" s="10"/>
       <c r="AMJ93" s="10"/>
     </row>
-    <row r="94" customFormat="1" spans="1:1024">
+    <row r="94" spans="1:1024" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A94" s="10" t="s">
         <v>49</v>
       </c>
@@ -15545,7 +14988,7 @@
       <c r="AMI94" s="10"/>
       <c r="AMJ94" s="10"/>
     </row>
-    <row r="95" spans="1:17">
+    <row r="95" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A95" s="8" t="s">
         <v>160</v>
       </c>
@@ -15598,7 +15041,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="96" spans="1:17">
+    <row r="96" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A96" s="8" t="s">
         <v>160</v>
       </c>
@@ -15651,7 +15094,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="97" spans="1:17">
+    <row r="97" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A97" s="8" t="s">
         <v>198</v>
       </c>
@@ -15704,7 +15147,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="98" spans="1:17">
+    <row r="98" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A98" s="8" t="s">
         <v>198</v>
       </c>
@@ -15757,7 +15200,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="99" customFormat="1" spans="1:1024">
+    <row r="99" spans="1:1024" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A99" s="8" t="s">
         <v>386</v>
       </c>
@@ -16815,46 +16258,113 @@
       <c r="AMI99" s="4"/>
       <c r="AMJ99" s="4"/>
     </row>
-    <row r="100" spans="1:17">
-      <c r="A100" s="8"/>
-      <c r="B100" s="22"/>
-      <c r="C100" s="8"/>
-      <c r="D100" s="8"/>
-      <c r="E100" s="8"/>
-      <c r="F100" s="8"/>
-      <c r="G100" s="8"/>
-      <c r="H100" s="8"/>
-      <c r="I100" s="8"/>
-      <c r="J100" s="8"/>
-      <c r="K100" s="11"/>
-      <c r="L100" s="8"/>
-      <c r="M100" s="8"/>
-      <c r="N100" s="26"/>
-      <c r="O100" s="26"/>
-      <c r="P100" s="22"/>
-      <c r="Q100" s="26"/>
+    <row r="100" spans="1:1024" x14ac:dyDescent="0.15">
+      <c r="A100" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B100" s="74" t="s">
+        <v>72</v>
+      </c>
+      <c r="C100" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="D100" s="63" t="s">
+        <v>268</v>
+      </c>
+      <c r="E100" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="F100" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="G100" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="H100" s="75" t="s">
+        <v>396</v>
+      </c>
+      <c r="I100" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J100" s="75" t="s">
+        <v>397</v>
+      </c>
+      <c r="K100" s="75" t="s">
+        <v>398</v>
+      </c>
+      <c r="L100" s="75" t="s">
+        <v>399</v>
+      </c>
+      <c r="M100" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="N100" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="O100" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="P100" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q100" s="37" t="s">
+        <v>400</v>
+      </c>
     </row>
-    <row r="101" spans="1:18">
-      <c r="A101" s="8"/>
-      <c r="B101" s="22"/>
-      <c r="C101" s="8"/>
-      <c r="D101" s="8"/>
-      <c r="E101" s="8"/>
-      <c r="F101" s="8"/>
-      <c r="G101" s="8"/>
-      <c r="H101" s="8"/>
-      <c r="I101" s="8"/>
-      <c r="J101" s="8"/>
-      <c r="K101" s="11"/>
-      <c r="L101" s="8"/>
-      <c r="M101" s="8"/>
-      <c r="N101" s="26"/>
-      <c r="O101" s="26"/>
-      <c r="P101" s="26"/>
-      <c r="Q101" s="26"/>
-      <c r="R101" s="8"/>
+    <row r="101" spans="1:1024" x14ac:dyDescent="0.15">
+      <c r="A101" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B101" s="74" t="s">
+        <v>72</v>
+      </c>
+      <c r="C101" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="D101" s="63" t="s">
+        <v>268</v>
+      </c>
+      <c r="E101" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="F101" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="G101" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="H101" s="75" t="s">
+        <v>396</v>
+      </c>
+      <c r="I101" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J101" s="75" t="s">
+        <v>397</v>
+      </c>
+      <c r="K101" s="75" t="s">
+        <v>401</v>
+      </c>
+      <c r="L101" s="75" t="s">
+        <v>402</v>
+      </c>
+      <c r="M101" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="N101" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="O101" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="P101" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q101" s="37" t="s">
+        <v>403</v>
+      </c>
     </row>
-    <row r="102" spans="1:17">
+    <row r="102" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A102" s="8"/>
       <c r="B102" s="22"/>
       <c r="C102" s="8"/>
@@ -16873,7 +16383,7 @@
       <c r="P102" s="26"/>
       <c r="Q102" s="26"/>
     </row>
-    <row r="103" spans="1:18">
+    <row r="103" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A103" s="8"/>
       <c r="B103" s="22"/>
       <c r="C103" s="8"/>
@@ -16893,7 +16403,7 @@
       <c r="Q103" s="26"/>
       <c r="R103" s="8"/>
     </row>
-    <row r="104" spans="1:17">
+    <row r="104" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A104" s="8"/>
       <c r="B104" s="22"/>
       <c r="C104" s="8"/>
@@ -16912,7 +16422,7 @@
       <c r="P104" s="26"/>
       <c r="Q104" s="26"/>
     </row>
-    <row r="105" spans="1:17">
+    <row r="105" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A105" s="27"/>
       <c r="B105" s="22"/>
       <c r="C105" s="8"/>
@@ -16931,7 +16441,7 @@
       <c r="P105" s="22"/>
       <c r="Q105" s="26"/>
     </row>
-    <row r="106" spans="1:17">
+    <row r="106" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A106" s="26"/>
       <c r="B106" s="22"/>
       <c r="C106" s="22"/>
@@ -16950,7 +16460,7 @@
       <c r="P106" s="22"/>
       <c r="Q106" s="26"/>
     </row>
-    <row r="107" spans="1:17">
+    <row r="107" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A107" s="27"/>
       <c r="B107" s="22"/>
       <c r="C107" s="8"/>
@@ -16969,7 +16479,7 @@
       <c r="P107" s="22"/>
       <c r="Q107" s="26"/>
     </row>
-    <row r="108" spans="1:17">
+    <row r="108" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A108" s="26"/>
       <c r="B108" s="22"/>
       <c r="C108" s="22"/>
@@ -16988,7 +16498,7 @@
       <c r="P108" s="22"/>
       <c r="Q108" s="26"/>
     </row>
-    <row r="109" spans="1:17">
+    <row r="109" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A109" s="27"/>
       <c r="B109" s="22"/>
       <c r="C109" s="8"/>
@@ -17007,7 +16517,7 @@
       <c r="P109" s="22"/>
       <c r="Q109" s="26"/>
     </row>
-    <row r="110" spans="1:17">
+    <row r="110" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A110" s="26"/>
       <c r="B110" s="22"/>
       <c r="C110" s="22"/>
@@ -17026,7 +16536,7 @@
       <c r="P110" s="22"/>
       <c r="Q110" s="26"/>
     </row>
-    <row r="111" spans="1:17">
+    <row r="111" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A111" s="27"/>
       <c r="B111" s="22"/>
       <c r="C111" s="8"/>
@@ -17045,7 +16555,7 @@
       <c r="P111" s="22"/>
       <c r="Q111" s="26"/>
     </row>
-    <row r="112" spans="1:17">
+    <row r="112" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A112" s="26"/>
       <c r="B112" s="22"/>
       <c r="C112" s="22"/>
@@ -17064,7 +16574,7 @@
       <c r="P112" s="22"/>
       <c r="Q112" s="26"/>
     </row>
-    <row r="113" spans="1:17">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A113" s="26"/>
       <c r="B113" s="22"/>
       <c r="C113" s="22"/>
@@ -17083,7 +16593,7 @@
       <c r="P113" s="22"/>
       <c r="Q113" s="26"/>
     </row>
-    <row r="114" spans="1:17">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A114" s="27"/>
       <c r="B114" s="22"/>
       <c r="C114" s="8"/>
@@ -17102,7 +16612,7 @@
       <c r="P114" s="22"/>
       <c r="Q114" s="26"/>
     </row>
-    <row r="115" spans="1:17">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A115" s="26"/>
       <c r="B115" s="22"/>
       <c r="C115" s="22"/>
@@ -17121,7 +16631,7 @@
       <c r="P115" s="22"/>
       <c r="Q115" s="26"/>
     </row>
-    <row r="116" spans="2:17">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B116" s="22"/>
       <c r="C116" s="8"/>
       <c r="D116" s="8"/>
@@ -17139,7 +16649,7 @@
       <c r="P116" s="26"/>
       <c r="Q116" s="26"/>
     </row>
-    <row r="117" spans="2:17">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B117" s="22"/>
       <c r="C117" s="8"/>
       <c r="D117" s="8"/>
@@ -17157,7 +16667,7 @@
       <c r="P117" s="26"/>
       <c r="Q117" s="26"/>
     </row>
-    <row r="118" spans="2:17">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B118" s="22"/>
       <c r="C118" s="8"/>
       <c r="D118" s="8"/>
@@ -17175,7 +16685,7 @@
       <c r="P118" s="26"/>
       <c r="Q118" s="26"/>
     </row>
-    <row r="119" s="8" customFormat="1" spans="1:17">
+    <row r="119" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A119" s="22"/>
       <c r="B119" s="22"/>
       <c r="C119" s="22"/>
@@ -17192,27 +16702,27 @@
       <c r="P119" s="22"/>
       <c r="Q119" s="6"/>
     </row>
-    <row r="120" s="8" customFormat="1" spans="2:16">
+    <row r="120" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B120" s="22"/>
       <c r="P120" s="22"/>
     </row>
-    <row r="121" s="8" customFormat="1" spans="2:16">
+    <row r="121" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B121" s="22"/>
       <c r="P121" s="22"/>
     </row>
-    <row r="122" s="8" customFormat="1" spans="2:16">
+    <row r="122" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B122" s="22"/>
       <c r="K122" s="11"/>
       <c r="P122" s="22"/>
     </row>
-    <row r="123" s="6" customFormat="1" spans="2:17">
+    <row r="123" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B123" s="22"/>
       <c r="F123" s="8"/>
       <c r="I123" s="8"/>
       <c r="M123" s="8"/>
       <c r="Q123" s="8"/>
     </row>
-    <row r="124" s="7" customFormat="1" spans="1:17">
+    <row r="124" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A124" s="25"/>
       <c r="B124" s="24"/>
       <c r="C124" s="25"/>
@@ -17231,7 +16741,7 @@
       <c r="P124" s="23"/>
       <c r="Q124" s="25"/>
     </row>
-    <row r="125" s="7" customFormat="1" spans="1:17">
+    <row r="125" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A125" s="23"/>
       <c r="B125" s="24"/>
       <c r="C125" s="23"/>
@@ -17250,7 +16760,7 @@
       <c r="P125" s="24"/>
       <c r="Q125" s="25"/>
     </row>
-    <row r="126" s="7" customFormat="1" spans="1:17">
+    <row r="126" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A126" s="23"/>
       <c r="B126" s="24"/>
       <c r="C126" s="23"/>
@@ -17269,7 +16779,7 @@
       <c r="P126" s="24"/>
       <c r="Q126" s="25"/>
     </row>
-    <row r="127" s="7" customFormat="1" spans="1:17">
+    <row r="127" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A127" s="23"/>
       <c r="B127" s="24"/>
       <c r="C127" s="23"/>
@@ -17288,7 +16798,7 @@
       <c r="P127" s="24"/>
       <c r="Q127" s="25"/>
     </row>
-    <row r="128" s="7" customFormat="1" spans="1:17">
+    <row r="128" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A128" s="23"/>
       <c r="B128" s="24"/>
       <c r="C128" s="24"/>
@@ -17307,7 +16817,7 @@
       <c r="P128" s="24"/>
       <c r="Q128" s="25"/>
     </row>
-    <row r="129" s="7" customFormat="1" spans="1:17">
+    <row r="129" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A129" s="23"/>
       <c r="B129" s="24"/>
       <c r="C129" s="24"/>
@@ -17326,7 +16836,7 @@
       <c r="P129" s="24"/>
       <c r="Q129" s="25"/>
     </row>
-    <row r="130" s="6" customFormat="1" spans="2:17">
+    <row r="130" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B130" s="22"/>
       <c r="F130" s="8"/>
       <c r="H130" s="26"/>
@@ -17334,7 +16844,7 @@
       <c r="M130" s="8"/>
       <c r="Q130" s="8"/>
     </row>
-    <row r="131" s="7" customFormat="1" spans="1:17">
+    <row r="131" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A131" s="25"/>
       <c r="B131" s="24"/>
       <c r="C131" s="25"/>
@@ -17353,7 +16863,7 @@
       <c r="P131" s="23"/>
       <c r="Q131" s="25"/>
     </row>
-    <row r="132" s="7" customFormat="1" spans="1:17">
+    <row r="132" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A132" s="23"/>
       <c r="B132" s="24"/>
       <c r="C132" s="23"/>
@@ -17372,7 +16882,7 @@
       <c r="P132" s="24"/>
       <c r="Q132" s="25"/>
     </row>
-    <row r="133" s="7" customFormat="1" spans="1:17">
+    <row r="133" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A133" s="23"/>
       <c r="B133" s="24"/>
       <c r="C133" s="23"/>
@@ -17391,7 +16901,7 @@
       <c r="P133" s="24"/>
       <c r="Q133" s="25"/>
     </row>
-    <row r="134" s="7" customFormat="1" spans="1:17">
+    <row r="134" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A134" s="23"/>
       <c r="B134" s="24"/>
       <c r="C134" s="24"/>
@@ -17410,7 +16920,7 @@
       <c r="P134" s="24"/>
       <c r="Q134" s="25"/>
     </row>
-    <row r="135" s="7" customFormat="1" spans="1:17">
+    <row r="135" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A135" s="23"/>
       <c r="B135" s="24"/>
       <c r="C135" s="24"/>
@@ -17429,7 +16939,7 @@
       <c r="P135" s="24"/>
       <c r="Q135" s="25"/>
     </row>
-    <row r="136" s="7" customFormat="1" spans="1:17">
+    <row r="136" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A136" s="23"/>
       <c r="B136" s="24"/>
       <c r="C136" s="24"/>
@@ -17448,7 +16958,7 @@
       <c r="P136" s="24"/>
       <c r="Q136" s="25"/>
     </row>
-    <row r="137" s="7" customFormat="1" spans="1:17">
+    <row r="137" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A137" s="23"/>
       <c r="B137" s="24"/>
       <c r="C137" s="24"/>
@@ -17467,7 +16977,7 @@
       <c r="P137" s="24"/>
       <c r="Q137" s="25"/>
     </row>
-    <row r="138" s="7" customFormat="1" spans="1:17">
+    <row r="138" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A138" s="23"/>
       <c r="B138" s="24"/>
       <c r="C138" s="24"/>
@@ -17486,7 +16996,7 @@
       <c r="P138" s="24"/>
       <c r="Q138" s="25"/>
     </row>
-    <row r="139" s="7" customFormat="1" spans="1:17">
+    <row r="139" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A139" s="23"/>
       <c r="B139" s="24"/>
       <c r="C139" s="24"/>
@@ -17505,47 +17015,47 @@
       <c r="P139" s="24"/>
       <c r="Q139" s="25"/>
     </row>
-    <row r="140" s="11" customFormat="1" spans="2:16">
+    <row r="140" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B140" s="22"/>
       <c r="L140" s="8"/>
       <c r="P140" s="22"/>
     </row>
-    <row r="141" s="11" customFormat="1" spans="2:16">
+    <row r="141" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B141" s="22"/>
       <c r="L141" s="8"/>
       <c r="P141" s="22"/>
     </row>
-    <row r="142" s="11" customFormat="1" spans="2:16">
+    <row r="142" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B142" s="22"/>
       <c r="L142" s="8"/>
       <c r="P142" s="22"/>
     </row>
-    <row r="143" s="11" customFormat="1" spans="2:16">
+    <row r="143" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B143" s="22"/>
       <c r="L143" s="8"/>
       <c r="P143" s="22"/>
     </row>
-    <row r="144" s="11" customFormat="1" spans="2:16">
+    <row r="144" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B144" s="22"/>
       <c r="L144" s="8"/>
       <c r="P144" s="22"/>
     </row>
-    <row r="145" s="11" customFormat="1" spans="2:16">
+    <row r="145" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B145" s="22"/>
       <c r="L145" s="8"/>
       <c r="P145" s="22"/>
     </row>
-    <row r="146" s="11" customFormat="1" spans="2:16">
+    <row r="146" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B146" s="22"/>
       <c r="L146" s="8"/>
       <c r="P146" s="22"/>
     </row>
-    <row r="147" s="11" customFormat="1" spans="2:16">
+    <row r="147" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B147" s="22"/>
       <c r="L147" s="8"/>
       <c r="P147" s="22"/>
     </row>
-    <row r="148" spans="2:17">
+    <row r="148" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="B148" s="22"/>
       <c r="C148" s="8"/>
       <c r="D148" s="8"/>
@@ -17563,7 +17073,7 @@
       <c r="P148" s="26"/>
       <c r="Q148" s="59"/>
     </row>
-    <row r="149" spans="2:17">
+    <row r="149" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="B149" s="22"/>
       <c r="C149" s="8"/>
       <c r="D149" s="8"/>
@@ -17581,7 +17091,7 @@
       <c r="P149" s="26"/>
       <c r="Q149" s="59"/>
     </row>
-    <row r="150" spans="2:17">
+    <row r="150" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="B150" s="22"/>
       <c r="C150" s="8"/>
       <c r="D150" s="8"/>
@@ -17599,7 +17109,7 @@
       <c r="P150" s="26"/>
       <c r="Q150" s="59"/>
     </row>
-    <row r="151" spans="2:17">
+    <row r="151" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="B151" s="22"/>
       <c r="C151" s="8"/>
       <c r="D151" s="8"/>
@@ -17617,7 +17127,7 @@
       <c r="P151" s="26"/>
       <c r="Q151" s="59"/>
     </row>
-    <row r="152" spans="2:17">
+    <row r="152" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="B152" s="22"/>
       <c r="C152" s="8"/>
       <c r="D152" s="8"/>
@@ -17635,7 +17145,7 @@
       <c r="P152" s="26"/>
       <c r="Q152" s="59"/>
     </row>
-    <row r="153" spans="2:17">
+    <row r="153" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="B153" s="22"/>
       <c r="C153" s="8"/>
       <c r="D153" s="8"/>
@@ -17653,7 +17163,7 @@
       <c r="P153" s="26"/>
       <c r="Q153" s="59"/>
     </row>
-    <row r="154" spans="2:17">
+    <row r="154" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="B154" s="22"/>
       <c r="C154" s="8"/>
       <c r="D154" s="8"/>
@@ -17670,29 +17180,29 @@
       <c r="P154" s="26"/>
       <c r="Q154" s="26"/>
     </row>
-    <row r="155" s="6" customFormat="1" spans="5:11">
+    <row r="155" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E155" s="22"/>
       <c r="F155" s="22"/>
       <c r="K155" s="11"/>
     </row>
-    <row r="156" s="6" customFormat="1" ht="15" customHeight="1" spans="5:15">
+    <row r="156" spans="1:1024" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E156" s="22"/>
       <c r="F156" s="22"/>
       <c r="K156" s="11"/>
       <c r="O156" s="26"/>
     </row>
-    <row r="157" s="6" customFormat="1" spans="1:15">
+    <row r="157" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A157" s="22"/>
       <c r="C157" s="22"/>
       <c r="E157" s="22"/>
       <c r="F157" s="22"/>
       <c r="O157" s="26"/>
     </row>
-    <row r="158" s="6" customFormat="1" spans="5:6">
+    <row r="158" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E158" s="22"/>
       <c r="F158" s="22"/>
     </row>
-    <row r="159" customFormat="1" spans="1:1024">
+    <row r="159" spans="1:1024" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A159" s="57"/>
       <c r="B159" s="57"/>
       <c r="C159" s="57"/>
@@ -18718,23 +18228,23 @@
       <c r="AMI159" s="58"/>
       <c r="AMJ159" s="58"/>
     </row>
-    <row r="160" s="4" customFormat="1" spans="1:17">
+    <row r="160" spans="1:1024" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A160" s="6"/>
       <c r="B160" s="22"/>
       <c r="C160" s="8"/>
       <c r="Q160" s="55"/>
     </row>
-    <row r="161" s="4" customFormat="1" spans="1:3">
+    <row r="161" spans="1:1024" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A161" s="6"/>
       <c r="B161" s="22"/>
       <c r="C161" s="8"/>
     </row>
-    <row r="162" s="4" customFormat="1" spans="1:3">
+    <row r="162" spans="1:1024" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A162" s="6"/>
       <c r="B162" s="22"/>
       <c r="C162" s="8"/>
     </row>
-    <row r="163" s="4" customFormat="1" spans="1:16">
+    <row r="163" spans="1:1024" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A163" s="6"/>
       <c r="B163" s="22"/>
       <c r="C163" s="22"/>
@@ -18751,7 +18261,7 @@
       <c r="O163" s="6"/>
       <c r="P163" s="22"/>
     </row>
-    <row r="164" s="4" customFormat="1" spans="1:16">
+    <row r="164" spans="1:1024" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A164" s="6"/>
       <c r="B164" s="22"/>
       <c r="C164" s="22"/>
@@ -18767,7 +18277,7 @@
       <c r="O164" s="6"/>
       <c r="P164" s="22"/>
     </row>
-    <row r="165" s="4" customFormat="1" spans="1:16">
+    <row r="165" spans="1:1024" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A165" s="6"/>
       <c r="B165" s="22"/>
       <c r="C165" s="22"/>
@@ -18784,7 +18294,7 @@
       <c r="O165" s="6"/>
       <c r="P165" s="22"/>
     </row>
-    <row r="166" s="4" customFormat="1" spans="1:16">
+    <row r="166" spans="1:1024" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A166" s="6"/>
       <c r="B166" s="22"/>
       <c r="C166" s="22"/>
@@ -18800,7 +18310,7 @@
       <c r="O166" s="6"/>
       <c r="P166" s="22"/>
     </row>
-    <row r="167" s="4" customFormat="1" spans="1:17">
+    <row r="167" spans="1:1024" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A167" s="23"/>
       <c r="B167" s="24"/>
       <c r="C167" s="24"/>
@@ -18808,42 +18318,42 @@
       <c r="P167" s="6"/>
       <c r="Q167" s="55"/>
     </row>
-    <row r="168" s="4" customFormat="1" spans="1:16">
+    <row r="168" spans="1:1024" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A168" s="23"/>
       <c r="B168" s="24"/>
       <c r="C168" s="24"/>
       <c r="D168" s="25"/>
       <c r="P168" s="6"/>
     </row>
-    <row r="169" s="4" customFormat="1" spans="1:16">
+    <row r="169" spans="1:1024" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A169" s="23"/>
       <c r="B169" s="24"/>
       <c r="C169" s="24"/>
       <c r="D169" s="25"/>
       <c r="P169" s="6"/>
     </row>
-    <row r="170" s="4" customFormat="1" spans="1:16">
+    <row r="170" spans="1:1024" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A170" s="23"/>
       <c r="B170" s="24"/>
       <c r="C170" s="24"/>
       <c r="D170" s="25"/>
       <c r="P170" s="6"/>
     </row>
-    <row r="171" s="4" customFormat="1" spans="1:16">
+    <row r="171" spans="1:1024" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A171" s="23"/>
       <c r="B171" s="24"/>
       <c r="C171" s="24"/>
       <c r="D171" s="25"/>
       <c r="P171" s="6"/>
     </row>
-    <row r="172" s="4" customFormat="1" spans="1:16">
+    <row r="172" spans="1:1024" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A172" s="23"/>
       <c r="B172" s="24"/>
       <c r="C172" s="24"/>
       <c r="D172" s="25"/>
       <c r="P172" s="6"/>
     </row>
-    <row r="173" spans="9:17">
+    <row r="173" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="I173" s="27"/>
       <c r="K173" s="4"/>
       <c r="M173" s="6"/>
@@ -18851,7 +18361,7 @@
       <c r="P173" s="6"/>
       <c r="Q173" s="55"/>
     </row>
-    <row r="174" s="8" customFormat="1" spans="2:1024">
+    <row r="174" spans="1:1024" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B174" s="22"/>
       <c r="F174" s="4"/>
       <c r="H174" s="4"/>
@@ -19865,7 +19375,7 @@
       <c r="AMI174" s="4"/>
       <c r="AMJ174" s="4"/>
     </row>
-    <row r="175" s="8" customFormat="1" spans="2:1024">
+    <row r="175" spans="1:1024" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B175" s="22"/>
       <c r="F175" s="4"/>
       <c r="H175" s="4"/>
@@ -20879,7 +20389,7 @@
       <c r="AMI175" s="4"/>
       <c r="AMJ175" s="4"/>
     </row>
-    <row r="176" s="8" customFormat="1" spans="2:1024">
+    <row r="176" spans="1:1024" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B176" s="22"/>
       <c r="F176" s="4"/>
       <c r="H176" s="4"/>
@@ -21893,7 +21403,7 @@
       <c r="AMI176" s="4"/>
       <c r="AMJ176" s="4"/>
     </row>
-    <row r="177" s="8" customFormat="1" spans="2:1024">
+    <row r="177" spans="1:1024" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B177" s="22"/>
       <c r="F177" s="4"/>
       <c r="H177" s="4"/>
@@ -22907,7 +22417,7 @@
       <c r="AMI177" s="4"/>
       <c r="AMJ177" s="4"/>
     </row>
-    <row r="178" s="8" customFormat="1" spans="2:1024">
+    <row r="178" spans="1:1024" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B178" s="22"/>
       <c r="F178" s="4"/>
       <c r="H178" s="4"/>
@@ -23921,7 +23431,7 @@
       <c r="AMI178" s="4"/>
       <c r="AMJ178" s="4"/>
     </row>
-    <row r="179" s="8" customFormat="1" spans="2:1024">
+    <row r="179" spans="1:1024" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B179" s="22"/>
       <c r="F179" s="4"/>
       <c r="H179" s="4"/>
@@ -24935,7 +24445,7 @@
       <c r="AMI179" s="4"/>
       <c r="AMJ179" s="4"/>
     </row>
-    <row r="180" spans="1:17">
+    <row r="180" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A180" s="8"/>
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
@@ -24949,7 +24459,7 @@
       <c r="N180" s="8"/>
       <c r="Q180" s="26"/>
     </row>
-    <row r="181" spans="1:21">
+    <row r="181" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A181" s="8"/>
       <c r="B181" s="8"/>
       <c r="C181" s="8"/>
@@ -24972,7 +24482,7 @@
       <c r="T181" s="33"/>
       <c r="U181" s="33"/>
     </row>
-    <row r="182" spans="1:21">
+    <row r="182" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A182" s="8"/>
       <c r="B182" s="8"/>
       <c r="C182" s="8"/>
@@ -24995,7 +24505,7 @@
       <c r="T182" s="33"/>
       <c r="U182" s="33"/>
     </row>
-    <row r="183" s="8" customFormat="1" spans="2:1024">
+    <row r="183" spans="1:1024" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B183" s="22"/>
       <c r="P183" s="22"/>
       <c r="Q183" s="59"/>
@@ -26007,7 +25517,7 @@
       <c r="AMI183" s="4"/>
       <c r="AMJ183" s="4"/>
     </row>
-    <row r="184" s="8" customFormat="1" spans="2:1024">
+    <row r="184" spans="1:1024" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B184" s="22"/>
       <c r="P184" s="22"/>
       <c r="Q184" s="59"/>
@@ -27019,42 +26529,42 @@
       <c r="AMI184" s="4"/>
       <c r="AMJ184" s="4"/>
     </row>
-    <row r="185" s="11" customFormat="1" spans="6:17">
+    <row r="185" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F185" s="8"/>
       <c r="L185" s="4"/>
       <c r="Q185" s="26"/>
     </row>
-    <row r="186" s="11" customFormat="1" spans="6:17">
+    <row r="186" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F186" s="8"/>
       <c r="L186" s="4"/>
       <c r="Q186" s="26"/>
     </row>
-    <row r="187" s="11" customFormat="1" spans="6:17">
+    <row r="187" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F187" s="8"/>
       <c r="Q187" s="26"/>
     </row>
-    <row r="188" s="11" customFormat="1" spans="6:17">
+    <row r="188" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F188" s="8"/>
       <c r="K188" s="26"/>
       <c r="Q188" s="26"/>
     </row>
-    <row r="189" s="11" customFormat="1" spans="6:17">
+    <row r="189" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F189" s="8"/>
       <c r="K189" s="26"/>
       <c r="Q189" s="26"/>
     </row>
-    <row r="190" s="11" customFormat="1" spans="6:17">
+    <row r="190" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F190" s="8"/>
       <c r="K190" s="26"/>
       <c r="Q190" s="26"/>
     </row>
-    <row r="191" s="11" customFormat="1" spans="6:17">
+    <row r="191" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F191" s="8"/>
       <c r="I191" s="25"/>
       <c r="L191" s="8"/>
       <c r="Q191" s="26"/>
     </row>
-    <row r="192" spans="1:17">
+    <row r="192" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A192" s="11"/>
       <c r="B192" s="11"/>
       <c r="C192" s="11"/>
@@ -27068,44 +26578,44 @@
       <c r="P192" s="11"/>
       <c r="Q192" s="55"/>
     </row>
-    <row r="193" s="12" customFormat="1" spans="6:17">
+    <row r="193" spans="1:1024" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F193" s="8"/>
       <c r="I193" s="11"/>
       <c r="J193" s="4"/>
       <c r="K193" s="11"/>
       <c r="Q193" s="26"/>
     </row>
-    <row r="194" s="11" customFormat="1" spans="6:17">
+    <row r="194" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F194" s="8"/>
       <c r="J194" s="4"/>
       <c r="L194" s="12"/>
       <c r="Q194" s="26"/>
     </row>
-    <row r="195" s="11" customFormat="1" spans="6:17">
+    <row r="195" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F195" s="8"/>
       <c r="J195" s="4"/>
       <c r="L195" s="12"/>
       <c r="Q195" s="26"/>
     </row>
-    <row r="196" s="11" customFormat="1" spans="6:17">
+    <row r="196" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F196" s="8"/>
       <c r="J196" s="4"/>
       <c r="K196" s="26"/>
       <c r="Q196" s="26"/>
     </row>
-    <row r="197" s="11" customFormat="1" spans="6:17">
+    <row r="197" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F197" s="8"/>
       <c r="J197" s="4"/>
       <c r="K197" s="26"/>
       <c r="Q197" s="26"/>
     </row>
-    <row r="198" s="11" customFormat="1" spans="6:17">
+    <row r="198" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F198" s="8"/>
       <c r="J198" s="4"/>
       <c r="K198" s="26"/>
       <c r="Q198" s="26"/>
     </row>
-    <row r="199" s="9" customFormat="1" spans="1:1024">
+    <row r="199" spans="1:1024" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A199" s="41"/>
       <c r="B199" s="41"/>
       <c r="C199" s="41"/>
@@ -28131,13 +27641,13 @@
       <c r="AMI199" s="56"/>
       <c r="AMJ199" s="56"/>
     </row>
-    <row r="200" s="11" customFormat="1" spans="6:17">
+    <row r="200" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F200" s="8"/>
       <c r="I200" s="25"/>
       <c r="L200" s="8"/>
       <c r="Q200" s="26"/>
     </row>
-    <row r="201" spans="1:17">
+    <row r="201" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A201" s="11"/>
       <c r="B201" s="11"/>
       <c r="C201" s="11"/>
@@ -28152,23 +27662,23 @@
       <c r="P201" s="11"/>
       <c r="Q201" s="55"/>
     </row>
-    <row r="202" spans="1:16">
+    <row r="202" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A202" s="22"/>
       <c r="B202" s="22"/>
       <c r="C202" s="22"/>
       <c r="D202" s="22"/>
       <c r="P202" s="6"/>
     </row>
-    <row r="203" spans="3:17">
+    <row r="203" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="C203" s="8"/>
       <c r="E203" s="8"/>
       <c r="Q203" s="55"/>
     </row>
-    <row r="204" spans="3:17">
+    <row r="204" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="C204" s="8"/>
       <c r="Q204" s="55"/>
     </row>
-    <row r="205" s="13" customFormat="1" spans="1:14">
+    <row r="205" spans="1:1024" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A205" s="62"/>
       <c r="B205" s="62"/>
       <c r="C205" s="62"/>
@@ -28177,7 +27687,7 @@
       <c r="K205" s="11"/>
       <c r="N205" s="64"/>
     </row>
-    <row r="206" s="13" customFormat="1" spans="1:14">
+    <row r="206" spans="1:1024" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A206" s="62"/>
       <c r="B206" s="62"/>
       <c r="C206" s="62"/>
@@ -28186,7 +27696,7 @@
       <c r="K206" s="11"/>
       <c r="N206" s="64"/>
     </row>
-    <row r="207" s="13" customFormat="1" spans="1:14">
+    <row r="207" spans="1:1024" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A207" s="62"/>
       <c r="B207" s="62"/>
       <c r="C207" s="62"/>
@@ -28195,7 +27705,7 @@
       <c r="K207" s="11"/>
       <c r="N207" s="64"/>
     </row>
-    <row r="208" s="13" customFormat="1" spans="1:14">
+    <row r="208" spans="1:1024" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A208" s="62"/>
       <c r="B208" s="62"/>
       <c r="C208" s="62"/>
@@ -28204,7 +27714,7 @@
       <c r="K208" s="11"/>
       <c r="N208" s="64"/>
     </row>
-    <row r="209" s="13" customFormat="1" spans="1:14">
+    <row r="209" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A209" s="62"/>
       <c r="B209" s="62"/>
       <c r="C209" s="62"/>
@@ -28213,7 +27723,7 @@
       <c r="K209" s="11"/>
       <c r="N209" s="64"/>
     </row>
-    <row r="210" s="13" customFormat="1" spans="1:14">
+    <row r="210" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A210" s="62"/>
       <c r="B210" s="62"/>
       <c r="C210" s="62"/>
@@ -28222,7 +27732,7 @@
       <c r="K210" s="11"/>
       <c r="N210" s="64"/>
     </row>
-    <row r="211" s="13" customFormat="1" spans="1:14">
+    <row r="211" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A211" s="62"/>
       <c r="B211" s="62"/>
       <c r="C211" s="62"/>
@@ -28231,7 +27741,7 @@
       <c r="K211" s="11"/>
       <c r="N211" s="64"/>
     </row>
-    <row r="212" s="13" customFormat="1" spans="1:14">
+    <row r="212" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A212" s="62"/>
       <c r="B212" s="62"/>
       <c r="C212" s="62"/>
@@ -28240,7 +27750,7 @@
       <c r="K212" s="11"/>
       <c r="N212" s="64"/>
     </row>
-    <row r="213" s="13" customFormat="1" spans="1:14">
+    <row r="213" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A213" s="62"/>
       <c r="B213" s="62"/>
       <c r="C213" s="62"/>
@@ -28249,7 +27759,7 @@
       <c r="K213" s="11"/>
       <c r="N213" s="65"/>
     </row>
-    <row r="214" s="13" customFormat="1" spans="1:14">
+    <row r="214" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A214" s="62"/>
       <c r="B214" s="62"/>
       <c r="C214" s="62"/>
@@ -28258,7 +27768,7 @@
       <c r="K214" s="11"/>
       <c r="N214" s="65"/>
     </row>
-    <row r="215" s="13" customFormat="1" spans="1:14">
+    <row r="215" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A215" s="62"/>
       <c r="B215" s="62"/>
       <c r="C215" s="62"/>
@@ -28267,7 +27777,7 @@
       <c r="K215" s="11"/>
       <c r="N215" s="65"/>
     </row>
-    <row r="216" s="13" customFormat="1" spans="1:14">
+    <row r="216" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A216" s="62"/>
       <c r="B216" s="62"/>
       <c r="C216" s="62"/>
@@ -28276,7 +27786,7 @@
       <c r="K216" s="11"/>
       <c r="N216" s="65"/>
     </row>
-    <row r="217" s="13" customFormat="1" spans="1:14">
+    <row r="217" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A217" s="62"/>
       <c r="B217" s="62"/>
       <c r="C217" s="62"/>
@@ -28285,7 +27795,7 @@
       <c r="K217" s="26"/>
       <c r="N217" s="64"/>
     </row>
-    <row r="218" s="13" customFormat="1" spans="1:14">
+    <row r="218" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A218" s="62"/>
       <c r="B218" s="62"/>
       <c r="C218" s="62"/>
@@ -28294,7 +27804,7 @@
       <c r="K218" s="26"/>
       <c r="N218" s="64"/>
     </row>
-    <row r="219" s="13" customFormat="1" spans="1:14">
+    <row r="219" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A219" s="62"/>
       <c r="B219" s="62"/>
       <c r="C219" s="62"/>
@@ -28303,7 +27813,7 @@
       <c r="K219" s="26"/>
       <c r="N219" s="64"/>
     </row>
-    <row r="220" s="13" customFormat="1" spans="1:14">
+    <row r="220" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A220" s="62"/>
       <c r="B220" s="62"/>
       <c r="C220" s="62"/>
@@ -28312,7 +27822,7 @@
       <c r="K220" s="26"/>
       <c r="N220" s="64"/>
     </row>
-    <row r="221" s="13" customFormat="1" spans="1:14">
+    <row r="221" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A221" s="62"/>
       <c r="B221" s="62"/>
       <c r="C221" s="62"/>
@@ -28321,7 +27831,7 @@
       <c r="K221" s="26"/>
       <c r="N221" s="64"/>
     </row>
-    <row r="222" s="13" customFormat="1" spans="1:14">
+    <row r="222" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A222" s="62"/>
       <c r="B222" s="62"/>
       <c r="C222" s="62"/>
@@ -28330,7 +27840,7 @@
       <c r="K222" s="26"/>
       <c r="N222" s="64"/>
     </row>
-    <row r="223" s="13" customFormat="1" spans="1:14">
+    <row r="223" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A223" s="62"/>
       <c r="B223" s="62"/>
       <c r="C223" s="62"/>
@@ -28339,7 +27849,7 @@
       <c r="K223" s="26"/>
       <c r="N223" s="64"/>
     </row>
-    <row r="224" s="13" customFormat="1" spans="1:14">
+    <row r="224" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A224" s="62"/>
       <c r="B224" s="62"/>
       <c r="C224" s="62"/>
@@ -28348,7 +27858,7 @@
       <c r="K224" s="26"/>
       <c r="N224" s="64"/>
     </row>
-    <row r="225" s="13" customFormat="1" spans="1:14">
+    <row r="225" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A225" s="62"/>
       <c r="B225" s="62"/>
       <c r="C225" s="62"/>
@@ -28357,7 +27867,7 @@
       <c r="K225" s="26"/>
       <c r="N225" s="65"/>
     </row>
-    <row r="226" s="13" customFormat="1" spans="1:14">
+    <row r="226" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A226" s="62"/>
       <c r="B226" s="62"/>
       <c r="C226" s="62"/>
@@ -28366,7 +27876,7 @@
       <c r="K226" s="26"/>
       <c r="N226" s="65"/>
     </row>
-    <row r="227" s="13" customFormat="1" spans="1:14">
+    <row r="227" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A227" s="62"/>
       <c r="B227" s="62"/>
       <c r="C227" s="62"/>
@@ -28375,7 +27885,7 @@
       <c r="K227" s="26"/>
       <c r="N227" s="65"/>
     </row>
-    <row r="228" s="13" customFormat="1" spans="1:14">
+    <row r="228" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A228" s="62"/>
       <c r="B228" s="62"/>
       <c r="C228" s="62"/>
@@ -28384,7 +27894,7 @@
       <c r="K228" s="26"/>
       <c r="N228" s="65"/>
     </row>
-    <row r="229" s="13" customFormat="1" spans="1:11">
+    <row r="229" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A229" s="62"/>
       <c r="B229" s="62"/>
       <c r="C229" s="62"/>
@@ -28392,7 +27902,7 @@
       <c r="I229" s="11"/>
       <c r="K229" s="11"/>
     </row>
-    <row r="230" s="13" customFormat="1" spans="1:11">
+    <row r="230" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A230" s="62"/>
       <c r="B230" s="62"/>
       <c r="C230" s="62"/>
@@ -28400,7 +27910,7 @@
       <c r="I230" s="11"/>
       <c r="K230" s="11"/>
     </row>
-    <row r="231" s="13" customFormat="1" spans="1:11">
+    <row r="231" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A231" s="62"/>
       <c r="B231" s="62"/>
       <c r="C231" s="62"/>
@@ -28408,7 +27918,7 @@
       <c r="I231" s="11"/>
       <c r="K231" s="11"/>
     </row>
-    <row r="232" s="13" customFormat="1" spans="1:11">
+    <row r="232" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A232" s="62"/>
       <c r="B232" s="62"/>
       <c r="C232" s="62"/>
@@ -28416,7 +27926,7 @@
       <c r="I232" s="11"/>
       <c r="K232" s="11"/>
     </row>
-    <row r="233" s="13" customFormat="1" spans="1:11">
+    <row r="233" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A233" s="62"/>
       <c r="B233" s="62"/>
       <c r="C233" s="62"/>
@@ -28424,7 +27934,7 @@
       <c r="I233" s="11"/>
       <c r="K233" s="11"/>
     </row>
-    <row r="234" s="13" customFormat="1" spans="1:11">
+    <row r="234" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A234" s="62"/>
       <c r="B234" s="62"/>
       <c r="C234" s="62"/>
@@ -28432,7 +27942,7 @@
       <c r="I234" s="11"/>
       <c r="K234" s="11"/>
     </row>
-    <row r="235" s="13" customFormat="1" spans="1:11">
+    <row r="235" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A235" s="62"/>
       <c r="B235" s="62"/>
       <c r="C235" s="62"/>
@@ -28440,7 +27950,7 @@
       <c r="I235" s="11"/>
       <c r="K235" s="26"/>
     </row>
-    <row r="236" s="13" customFormat="1" spans="1:11">
+    <row r="236" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A236" s="62"/>
       <c r="B236" s="62"/>
       <c r="C236" s="62"/>
@@ -28448,7 +27958,7 @@
       <c r="I236" s="11"/>
       <c r="K236" s="26"/>
     </row>
-    <row r="237" s="13" customFormat="1" spans="1:11">
+    <row r="237" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A237" s="62"/>
       <c r="B237" s="62"/>
       <c r="C237" s="62"/>
@@ -28456,7 +27966,7 @@
       <c r="I237" s="11"/>
       <c r="K237" s="26"/>
     </row>
-    <row r="238" s="13" customFormat="1" spans="1:11">
+    <row r="238" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A238" s="62"/>
       <c r="B238" s="62"/>
       <c r="C238" s="62"/>
@@ -28464,7 +27974,7 @@
       <c r="I238" s="11"/>
       <c r="K238" s="26"/>
     </row>
-    <row r="239" s="13" customFormat="1" spans="1:11">
+    <row r="239" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A239" s="62"/>
       <c r="B239" s="62"/>
       <c r="C239" s="62"/>
@@ -28472,7 +27982,7 @@
       <c r="I239" s="11"/>
       <c r="K239" s="26"/>
     </row>
-    <row r="240" s="13" customFormat="1" spans="1:11">
+    <row r="240" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A240" s="62"/>
       <c r="B240" s="62"/>
       <c r="C240" s="62"/>
@@ -28480,7 +27990,7 @@
       <c r="I240" s="11"/>
       <c r="K240" s="26"/>
     </row>
-    <row r="241" s="10" customFormat="1" spans="1:17">
+    <row r="241" spans="1:1024" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A241" s="43"/>
       <c r="B241" s="43"/>
       <c r="C241" s="43"/>
@@ -28498,7 +28008,7 @@
       <c r="P241" s="43"/>
       <c r="Q241" s="57"/>
     </row>
-    <row r="242" s="10" customFormat="1" spans="1:17">
+    <row r="242" spans="1:1024" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A242" s="43"/>
       <c r="B242" s="43"/>
       <c r="C242" s="43"/>
@@ -28516,7 +28026,7 @@
       <c r="P242" s="43"/>
       <c r="Q242" s="57"/>
     </row>
-    <row r="243" s="10" customFormat="1" spans="1:17">
+    <row r="243" spans="1:1024" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A243" s="43"/>
       <c r="B243" s="43"/>
       <c r="C243" s="43"/>
@@ -28534,7 +28044,7 @@
       <c r="P243" s="43"/>
       <c r="Q243" s="59"/>
     </row>
-    <row r="244" s="10" customFormat="1" spans="1:17">
+    <row r="244" spans="1:1024" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A244" s="43"/>
       <c r="B244" s="43"/>
       <c r="C244" s="43"/>
@@ -28552,7 +28062,7 @@
       <c r="P244" s="43"/>
       <c r="Q244" s="59"/>
     </row>
-    <row r="245" s="10" customFormat="1" spans="1:17">
+    <row r="245" spans="1:1024" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A245" s="43"/>
       <c r="B245" s="43"/>
       <c r="C245" s="43"/>
@@ -28570,7 +28080,7 @@
       <c r="P245" s="43"/>
       <c r="Q245" s="59"/>
     </row>
-    <row r="246" s="10" customFormat="1" spans="1:17">
+    <row r="246" spans="1:1024" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A246" s="43"/>
       <c r="B246" s="43"/>
       <c r="C246" s="43"/>
@@ -28588,7 +28098,7 @@
       <c r="P246" s="43"/>
       <c r="Q246" s="59"/>
     </row>
-    <row r="247" customFormat="1" spans="1:1024">
+    <row r="247" spans="1:1024" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
@@ -29614,7 +29124,7 @@
       <c r="AMI247" s="4"/>
       <c r="AMJ247" s="4"/>
     </row>
-    <row r="248" customFormat="1" spans="1:1024">
+    <row r="248" spans="1:1024" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
@@ -30640,7 +30150,7 @@
       <c r="AMI248" s="4"/>
       <c r="AMJ248" s="4"/>
     </row>
-    <row r="249" customFormat="1" spans="1:1024">
+    <row r="249" spans="1:1024" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
@@ -31666,7 +31176,7 @@
       <c r="AMI249" s="4"/>
       <c r="AMJ249" s="4"/>
     </row>
-    <row r="250" customFormat="1" spans="1:1024">
+    <row r="250" spans="1:1024" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
@@ -32692,7 +32202,7 @@
       <c r="AMI250" s="4"/>
       <c r="AMJ250" s="4"/>
     </row>
-    <row r="251" s="4" customFormat="1" spans="1:17">
+    <row r="251" spans="1:1024" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A251" s="23"/>
       <c r="B251" s="24"/>
       <c r="C251" s="24"/>
@@ -32701,7 +32211,7 @@
       <c r="P251" s="6"/>
       <c r="Q251" s="68"/>
     </row>
-    <row r="252" s="4" customFormat="1" spans="1:17">
+    <row r="252" spans="1:1024" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A252" s="23"/>
       <c r="B252" s="24"/>
       <c r="C252" s="24"/>
@@ -32710,7 +32220,7 @@
       <c r="P252" s="6"/>
       <c r="Q252" s="36"/>
     </row>
-    <row r="253" s="4" customFormat="1" spans="1:17">
+    <row r="253" spans="1:1024" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A253" s="23"/>
       <c r="B253" s="24"/>
       <c r="C253" s="24"/>
@@ -32719,7 +32229,7 @@
       <c r="P253" s="6"/>
       <c r="Q253" s="68"/>
     </row>
-    <row r="254" s="4" customFormat="1" spans="1:17">
+    <row r="254" spans="1:1024" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A254" s="23"/>
       <c r="B254" s="24"/>
       <c r="C254" s="24"/>
@@ -32728,7 +32238,7 @@
       <c r="P254" s="6"/>
       <c r="Q254" s="36"/>
     </row>
-    <row r="255" s="4" customFormat="1" spans="1:17">
+    <row r="255" spans="1:1024" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A255" s="23"/>
       <c r="B255" s="24"/>
       <c r="C255" s="24"/>
@@ -32737,7 +32247,7 @@
       <c r="P255" s="6"/>
       <c r="Q255" s="68"/>
     </row>
-    <row r="256" s="4" customFormat="1" spans="1:17">
+    <row r="256" spans="1:1024" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A256" s="23"/>
       <c r="B256" s="24"/>
       <c r="C256" s="24"/>
@@ -32746,7 +32256,7 @@
       <c r="P256" s="6"/>
       <c r="Q256" s="36"/>
     </row>
-    <row r="257" customFormat="1" spans="1:1024">
+    <row r="257" spans="1:1024" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A257" s="6"/>
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
@@ -33772,7 +33282,7 @@
       <c r="AMI257" s="4"/>
       <c r="AMJ257" s="4"/>
     </row>
-    <row r="258" spans="1:1024">
+    <row r="258" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A258" s="28"/>
       <c r="B258" s="28"/>
       <c r="C258" s="28"/>
@@ -34798,77 +34308,77 @@
       <c r="AMI258" s="35"/>
       <c r="AMJ258" s="35"/>
     </row>
-    <row r="259" s="14" customFormat="1"/>
-    <row r="260" s="14" customFormat="1"/>
-    <row r="261" s="14" customFormat="1"/>
-    <row r="262" s="14" customFormat="1"/>
-    <row r="263" s="14" customFormat="1"/>
-    <row r="264" s="14" customFormat="1"/>
-    <row r="265" s="14" customFormat="1"/>
-    <row r="266" s="14" customFormat="1"/>
-    <row r="267" s="14" customFormat="1"/>
-    <row r="268" s="14" customFormat="1"/>
-    <row r="269" s="14" customFormat="1"/>
-    <row r="270" s="14" customFormat="1"/>
-    <row r="271" s="14" customFormat="1"/>
-    <row r="272" s="14" customFormat="1"/>
+    <row r="259" spans="1:1024" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="260" spans="1:1024" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="261" spans="1:1024" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="262" spans="1:1024" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="263" spans="1:1024" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="264" spans="1:1024" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="265" spans="1:1024" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="266" spans="1:1024" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="267" spans="1:1024" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="268" spans="1:1024" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="269" spans="1:1024" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="270" spans="1:1024" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="271" spans="1:1024" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="272" spans="1:1024" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <autoFilter ref="A1:U272">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:U272" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E8 E41:E42 E61:E64 E75:E78 E181:E182">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E8 E41:E42 E61:E64 E75:E78 E181:E182" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"aarch64,x86_64"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="Q5" r:id="rId1" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS-SP1/contrib/drivers/aarch64/Packages/cuda_11.6.1_510.47.03_linux_sbsa.run" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS-SP1/contrib/drivers/aarch64/Packages/cuda_11.6.1_510.47.03_linux_sbsa.run"/>
-    <hyperlink ref="Q38" r:id="rId2" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS-SP1/contrib/drivers/x86_64/Packages/cuda_11.6.1_510.47.03_linux.run" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS-SP1/contrib/drivers/x86_64/Packages/cuda_11.6.1_510.47.03_linux.run"/>
-    <hyperlink ref="Q39" r:id="rId2" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS-SP1/contrib/drivers/x86_64/Packages/cuda_11.6.1_510.47.03_linux.run" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS-SP1/contrib/drivers/x86_64/Packages/cuda_11.6.1_510.47.03_linux.run"/>
-    <hyperlink ref="Q40" r:id="rId1" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS-SP1/contrib/drivers/aarch64/Packages/cuda_11.6.1_510.47.03_linux_sbsa.run"/>
-    <hyperlink ref="Q70" r:id="rId3" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS-SP1/contrib/drivers/source/Packages/ngbe-1.2.3.tar.gz"/>
-    <hyperlink ref="Q76" r:id="rId4" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS-SP1/contrib/drivers/source/Packages/igb-5.13.7.tar.gz"/>
-    <hyperlink ref="Q75" r:id="rId4" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS-SP1/contrib/drivers/source/Packages/igb-5.13.7.tar.gz"/>
-    <hyperlink ref="Q78" r:id="rId4" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS-SP1/contrib/drivers/source/Packages/igb-5.13.7.tar.gz"/>
-    <hyperlink ref="Q77" r:id="rId4" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS-SP1/contrib/drivers/source/Packages/igb-5.13.7.tar.gz"/>
-    <hyperlink ref="Q79" r:id="rId5" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS-SP1/contrib/drivers/source/Packages/ixgbe-5.18.6.tar.gz"/>
-    <hyperlink ref="Q80" r:id="rId5" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS-SP1/contrib/drivers/source/Packages/ixgbe-5.18.6.tar.gz"/>
-    <hyperlink ref="Q81" r:id="rId6" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS-SP1/contrib/drivers/source/Packages/ice-1.10.1.2.2.tar.gz"/>
-    <hyperlink ref="Q82" r:id="rId6" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS-SP1/contrib/drivers/source/Packages/ice-1.10.1.2.2.tar.gz"/>
-    <hyperlink ref="Q83" r:id="rId7" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS-SP1/contrib/drivers/source/Packages/i40e-2.20.12.tar.gz" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS-SP1/contrib/drivers/source/Packages/i40e-2.20.12.tar.gz"/>
-    <hyperlink ref="Q93" r:id="rId2" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS-SP1/contrib/drivers/x86_64/Packages/cuda_11.6.1_510.47.03_linux.run"/>
-    <hyperlink ref="Q94" r:id="rId1" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS-SP1/contrib/drivers/aarch64/Packages/cuda_11.6.1_510.47.03_linux_sbsa.run"/>
-    <hyperlink ref="Q95" r:id="rId8" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS-SP1/contrib/drivers/source/Packages/elx-lpfc-dd-openEuler22-14.2.539.20-ds-1.tar.gz"/>
-    <hyperlink ref="Q96" r:id="rId8" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS-SP1/contrib/drivers/source/Packages/elx-lpfc-dd-openEuler22-14.2.539.20-ds-1.tar.gz"/>
-    <hyperlink ref="Q97" r:id="rId9" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS-SP1/contrib/drivers/source/Packages/qla2xxx-src-v10.02.09.00-k.tar.gz"/>
-    <hyperlink ref="Q98" r:id="rId9" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS-SP1/contrib/drivers/source/Packages/qla2xxx-src-v10.02.09.00-k.tar.gz"/>
+    <hyperlink ref="Q5" r:id="rId1" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS-SP1/contrib/drivers/aarch64/Packages/cuda_11.6.1_510.47.03_linux_sbsa.run" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="Q38" r:id="rId2" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS-SP1/contrib/drivers/x86_64/Packages/cuda_11.6.1_510.47.03_linux.run" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="Q39" r:id="rId3" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS-SP1/contrib/drivers/x86_64/Packages/cuda_11.6.1_510.47.03_linux.run" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="Q40" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="Q70" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="Q76" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="Q75" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="Q78" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="Q77" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="Q79" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="Q80" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="Q81" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="Q82" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="Q83" r:id="rId14" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS-SP1/contrib/drivers/source/Packages/i40e-2.20.12.tar.gz" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="Q93" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="Q94" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="Q95" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="Q96" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="Q97" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="Q98" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="Q101" r:id="rId21" xr:uid="{F5637282-D204-4F9C-ADE2-2466BED3AFCF}"/>
+    <hyperlink ref="Q100" r:id="rId22" xr:uid="{EBBD1666-3EBB-47DD-B362-8B606218C2FC}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AMH1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
     <col min="2" max="1022" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;F&amp;R文档密级</oddHeader>
